--- a/jeesite-trading/src/main/resources/static/template/装箱单Template.xlsx
+++ b/jeesite-trading/src/main/resources/static/template/装箱单Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="装箱单" sheetId="1" r:id="rId1"/>
@@ -80,27 +80,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>净重：10；   毛重：10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量      Quantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格及包装       Spec &amp; Packing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15cm*15cm*10mm；   单件包装：困扎；   内包装：彩印编织袋；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈三石;                  美国旧金山;     LR821878891;                         </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>出票人签章：Signature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净重：10；   毛重：10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量      Quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格及包装       Spec &amp; Packing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15cm*15cm*10mm；   单件包装：困扎；   内包装：彩印编织袋；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">陈三石;                  美国旧金山;     LR821878891;                         </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,9 +209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,25 +220,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -543,150 +574,150 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>52.5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>100</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="46.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
